--- a/pj2/Timetable.xlsx
+++ b/pj2/Timetable.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842C9D7-C896-47EF-8AAF-331D17954824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/classes/TA-ds/Project 2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="1680" windowWidth="18600" windowHeight="12160" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Line 1" sheetId="1" r:id="rId1"/>
@@ -22,20 +26,23 @@
     <sheet name="Line 12" sheetId="12" r:id="rId12"/>
     <sheet name="Line 13" sheetId="13" r:id="rId13"/>
     <sheet name="Line 16" sheetId="14" r:id="rId14"/>
+    <sheet name="Line 17" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="359">
   <si>
     <t>莘庄</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>外环路</t>
   </si>
   <si>
@@ -114,6 +121,9 @@
     <t>友谊西路</t>
   </si>
   <si>
+    <t>富 锦 路</t>
+  </si>
+  <si>
     <t>浦东国际机场</t>
   </si>
   <si>
@@ -795,12 +805,6 @@
     <t>白银路</t>
   </si>
   <si>
-    <t>嘉定西站</t>
-  </si>
-  <si>
-    <t>嘉定北站</t>
-  </si>
-  <si>
     <t>上海赛车场</t>
   </si>
   <si>
@@ -933,15 +937,448 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>富锦路</t>
+    <t>芳甸路</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dian'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天路</t>
+    <rPh sb="0" eb="1">
+      <t>lan'tian'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台儿庄路</t>
+    <rPh sb="0" eb="1">
+      <t>tai'er'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金桥</t>
+    <rPh sb="0" eb="1">
+      <t>jin'qiao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金吉路</t>
+    <rPh sb="0" eb="1">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金海路</t>
+    <rPh sb="0" eb="1">
+      <t>jin'hai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾唐路</t>
+    <rPh sb="2" eb="3">
+      <t>lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民雷路</t>
+    <rPh sb="2" eb="3">
+      <t>lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹路</t>
+    <rPh sb="0" eb="1">
+      <t>cao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次00:11</t>
+  </si>
+  <si>
+    <t>次00:14</t>
+  </si>
+  <si>
+    <t>次00:05</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>次00:08</t>
+  </si>
+  <si>
+    <t>次00:01</t>
+  </si>
+  <si>
+    <t>秀沿路</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'yan'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>康新公路</t>
+    <rPh sb="0" eb="1">
+      <t>kang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪士尼</t>
+    <rPh sb="0" eb="1">
+      <t>di'shi'ni</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉中路</t>
+    <rPh sb="0" eb="1">
+      <t>han'zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京西路</t>
+    <rPh sb="0" eb="1">
+      <t>n'j'x'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西南路</t>
+    <rPh sb="0" eb="1">
+      <t>shan'xi'nan'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉善路</t>
+    <rPh sb="0" eb="1">
+      <t>jia'shan'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大木桥路</t>
+    <rPh sb="0" eb="1">
+      <t>da'mu'qiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙华中路</t>
+    <rPh sb="0" eb="1">
+      <t>long'hua'zhong'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙华</t>
+    <rPh sb="0" eb="1">
+      <t>long'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙漕路</t>
+    <rPh sb="0" eb="1">
+      <t>long'cao'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漕宝路</t>
+    <rPh sb="0" eb="1">
+      <t>cao'bao'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂林公园</t>
+    <rPh sb="0" eb="1">
+      <t>gui'lin'gong'y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹漕路</t>
+    <rPh sb="0" eb="1">
+      <t>hong'cao'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹梅路</t>
+    <rPh sb="0" eb="1">
+      <t>hong'mei'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东兰路</t>
+    <rPh sb="0" eb="1">
+      <t>dong'lan'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾戴路</t>
+    <rPh sb="0" eb="1">
+      <t>gu'dai'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹莘路</t>
+    <rPh sb="0" eb="1">
+      <t>hong'xin'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七莘路</t>
+    <rPh sb="0" eb="1">
+      <t>qi'xin'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆德路</t>
+    <rPh sb="0" eb="1">
+      <t>long'de'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武宁路</t>
+    <rPh sb="0" eb="1">
+      <t>wu'ning'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长寿路</t>
+    <rPh sb="0" eb="1">
+      <t>chang'shou'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江宁路</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'n'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉中路</t>
+    <rPh sb="0" eb="1">
+      <t>han'zhong'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然博物馆</t>
+    <rPh sb="0" eb="1">
+      <t>z'r'b'w'g</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮海中路</t>
+    <rPh sb="0" eb="1">
+      <t>h'h'z'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新天地</t>
+    <rPh sb="0" eb="1">
+      <t>x't'd</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马当路</t>
+    <rPh sb="0" eb="1">
+      <t>m'd'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世博会博物馆</t>
+    <rPh sb="0" eb="1">
+      <t>shi'bo'h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bo'w'g</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世博大道</t>
+    <rPh sb="0" eb="1">
+      <t>s'b'd'd</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏中路</t>
+    <rPh sb="0" eb="1">
+      <t>hua'x'z'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙阳路</t>
+    <rPh sb="0" eb="1">
+      <t>long'y'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹桥火车站</t>
+    <rPh sb="0" eb="1">
+      <t>hong'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>h'c'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸光路</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'guang'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟠龙路</t>
+    <rPh sb="0" eb="1">
+      <t>pan'long'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐盈路</t>
+    <rPh sb="0" eb="1">
+      <t>xu'ying'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐泾北城</t>
+    <rPh sb="0" eb="1">
+      <t>xu'jing'bei'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉松中路</t>
+    <rPh sb="0" eb="1">
+      <t>jia'song'zhong'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵巷</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇金路</t>
+    <rPh sb="0" eb="1">
+      <t>hui'jin'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青浦新城</t>
+    <rPh sb="0" eb="1">
+      <t>qing'pu'xin'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漕盈路</t>
+    <rPh sb="0" eb="1">
+      <t>cao'ying'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淀山湖大道</t>
+    <rPh sb="0" eb="1">
+      <t>dian'sahn'hu'da'dao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱家角</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jia'jiao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方绿洲</t>
+    <rPh sb="0" eb="1">
+      <t>dong'f'l'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉定西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉定北</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,6 +1400,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1040,12 +1498,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE0C5F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1071,6 +1523,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E8DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,10 +1582,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1135,13 +1605,7 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1171,28 +1635,22 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1228,22 +1686,41 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,16 +1729,33 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1277,7 +1771,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1352,23 +1846,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1404,23 +1881,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1596,244 +2056,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="19">
         <v>0.93888888888888899</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
-        <v>0.94027777777777777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="19">
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23">
-        <v>0.94166666666666676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="21">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
-        <v>0.94374999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="19">
+        <v>0.9458333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23">
-        <v>0.9458333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="21">
+        <v>0.94791666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
-        <v>0.94791666666666663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="19">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23">
-        <v>0.95000000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="21">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25">
-        <v>0.95138888888888884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="19">
+        <v>0.95277777777777783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
-        <v>0.95277777777777783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="21">
+        <v>0.95416666666666661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25">
-        <v>0.95416666666666661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="19">
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="23">
-        <v>0.9555555555555556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="21">
+        <v>0.95694444444444438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="25">
-        <v>0.95694444444444438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="19">
+        <v>0.9590277777777777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="23">
-        <v>0.9590277777777777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="21">
+        <v>0.9604166666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25">
-        <v>0.9604166666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="19">
+        <v>0.96180555555555547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
-        <v>0.96180555555555547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="21">
+        <v>0.96388888888888891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="25">
-        <v>0.96388888888888891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="19">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23">
-        <v>0.96527777777777779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="21">
+        <v>0.96736111111111101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="25">
-        <v>0.96736111111111101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="19">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="23">
-        <v>0.96875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="21">
+        <v>0.97013888888888899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="25">
-        <v>0.97013888888888899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="19">
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="23">
-        <v>0.97222222222222221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="21">
+        <v>0.97430555555555554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="25">
-        <v>0.97430555555555554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="19">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="23">
-        <v>0.97569444444444453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="21">
+        <v>0.9770833333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="25">
-        <v>0.9770833333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="19">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="23">
-        <v>0.97916666666666663</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="21">
+        <v>0.98125000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="25">
-        <v>0.98125000000000007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="19">
+        <v>0.98263888888888884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="23">
-        <v>0.98263888888888884</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B29" s="25">
+      <c r="B29" s="21">
         <v>0.98402777777777783</v>
       </c>
     </row>
@@ -1845,375 +2305,378 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="C1" s="43"/>
-    </row>
-    <row r="2" spans="1:3" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="16" t="s">
+      <c r="B1" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="47"/>
+    </row>
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="47"/>
+      <c r="B2" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.91319444444444453</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="19">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.91388888888888886</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.91736111111111107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="21">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.93819444444444444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.91527777777777775</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.91875000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="B5" s="19">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.91736111111111107</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.92083333333333339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="B6" s="21">
+        <v>0.9375</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.91875000000000007</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.92222222222222217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="B7" s="19">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.94236111111111109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.92013888888888884</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="B8" s="21">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.92152777777777783</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.92499999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="B9" s="19">
+        <v>0.94166666666666676</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.92291666666666661</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.92638888888888893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="B10" s="21">
+        <v>0.94305555555555554</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.94652777777777775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.9243055555555556</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.9277777777777777</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="B11" s="19">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.94791666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.92569444444444438</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.9291666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="B12" s="21">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.94930555555555562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.9277777777777777</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.93125000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="B13" s="19">
+        <v>0.9472222222222223</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.9506944444444444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.9291666666666667</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.93263888888888891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="B14" s="21">
+        <v>0.94861111111111107</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.95208333333333339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="4">
-        <v>0.93055555555555547</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.93402777777777779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="B15" s="19">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.95347222222222217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.93263888888888891</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.93611111111111101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="B16" s="21">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="4">
-        <v>0.93402777777777779</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="B17" s="19">
+        <v>0.95347222222222217</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.95694444444444438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.93611111111111101</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.93958333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.93819444444444444</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.94166666666666676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="B18" s="21">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="19">
+        <v>0.95694444444444438</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.9604166666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.93958333333333333</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.94305555555555554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="B20" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0.96180555555555547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.94166666666666676</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.94513888888888886</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="B21" s="19">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.96319444444444446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.94305555555555554</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.94652777777777775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="B22" s="21">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.94791666666666663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="B23" s="19">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.96597222222222223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.94652777777777775</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.95000000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="B24" s="21">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.96736111111111101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B25" s="4">
-        <v>0.94791666666666663</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.95138888888888884</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="B25" s="19">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.95277777777777783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="B26" s="21">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0.97013888888888899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.95416666666666661</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="B27" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.95624999999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="B28" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.9590277777777777</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="B29" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="23">
-        <v>0.9604166666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="B30" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0.9770833333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="4">
-        <v>0.95208333333333339</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="B31" s="19">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="2">
-        <v>0.95347222222222217</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="B32" s="21">
+        <v>0.97083333333333333</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="25">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>1</v>
+      <c r="B33" s="19">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="I44:I74">
+    <sortCondition ref="I44"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -2225,419 +2688,455 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A24" zoomScale="126" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="C1" s="44"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="17" t="s">
+      <c r="B1" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="48"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="48"/>
+      <c r="B2" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.9375</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.9194444444444444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.92152777777777783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B6" s="21">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.92569444444444438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.92847222222222225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.93055555555555547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0.95277777777777783</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.93194444444444446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.93541666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C12" s="21">
         <v>0.9375</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.93958333333333333</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.91875000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.94305555555555554</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.92222222222222217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.94513888888888886</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.9243055555555556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.94652777777777775</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.92569444444444438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="4">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.93888888888888899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="19">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.9458333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="21">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.94861111111111107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="19">
+        <v>0.97083333333333333</v>
+      </c>
+      <c r="C19" s="19">
         <v>0.95000000000000007</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.9291666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" s="2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="21">
+        <v>0.97291666666666676</v>
+      </c>
+      <c r="C20" s="21">
         <v>0.95208333333333339</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.93125000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.95347222222222217</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.93263888888888891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="19">
+        <v>0.97361111111111109</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.95277777777777783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="21">
+        <v>0.97569444444444453</v>
+      </c>
+      <c r="C22" s="21">
         <v>0.95486111111111116</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.93402777777777779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.95694444444444438</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.93611111111111101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.9590277777777777</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.93819444444444444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="4">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="19">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.95624999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="21">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="19">
+        <v>0.98055555555555562</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="21">
+        <v>0.9819444444444444</v>
+      </c>
+      <c r="C26" s="21">
         <v>0.96111111111111114</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.94027777777777777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="19">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="C27" s="19">
         <v>0.96319444444444446</v>
       </c>
-      <c r="C15" s="2">
-        <v>0.94236111111111109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.96527777777777779</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.94444444444444453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.9458333333333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.96805555555555556</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.9472222222222223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="2">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="21">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.96597222222222223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="19">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="C29" s="19">
         <v>0.96944444444444444</v>
       </c>
-      <c r="C19" s="2">
-        <v>0.94861111111111107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.97152777777777777</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.9506944444444444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.97291666666666676</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.95208333333333339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B22" s="4">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="21">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0.99444444444444446</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B32" s="21">
+        <v>0.99722222222222223</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B33" s="19">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="21">
         <v>0.97499999999999998</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.95416666666666661</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.97638888888888886</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.9555555555555556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.95694444444444438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" s="2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C35" s="19">
+        <v>0.9784722222222223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" s="21">
         <v>0.98055555555555562</v>
       </c>
-      <c r="C25" s="2">
-        <v>0.95972222222222225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" s="4">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0.98263888888888884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="21">
         <v>0.98472222222222217</v>
       </c>
-      <c r="C26" s="4">
-        <v>0.96388888888888891</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.9868055555555556</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.96597222222222223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B28" s="4">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0.98749999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" s="21">
         <v>0.98888888888888893</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.9916666666666667</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="25">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.96875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.97291666666666676</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.9770833333333333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.9784722222222223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0.98055555555555562</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="23">
-        <v>0.9819444444444444</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="G49:G87">
+    <sortCondition ref="G49"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -2648,225 +3147,456 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="B3" s="21">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="37">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="B4" s="19">
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="20">
-        <v>0.9194444444444444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="B5" s="21">
+        <v>0.94305555555555554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="19">
-        <v>0.92083333333333339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="B7" s="21">
+        <v>0.94652777777777775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="20">
-        <v>0.92222222222222217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.9243055555555556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="B8" s="19">
+        <v>0.94861111111111107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="20">
-        <v>0.92569444444444438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="B9" s="21">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="19">
-        <v>0.9277777777777777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="B10" s="19">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="20">
-        <v>0.9291666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="B11" s="21">
+        <v>0.95347222222222217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="19">
-        <v>0.93055555555555547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="B12" s="19">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.95624999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="20">
-        <v>0.93263888888888891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="B14" s="19">
+        <v>0.95763888888888893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="19">
-        <v>0.93402777777777779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="20">
-        <v>0.93541666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.93680555555555556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B15" s="20">
-        <v>0.93819444444444444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="B15" s="21">
+        <v>0.9590277777777777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
         <v>217</v>
       </c>
       <c r="B16" s="19">
-        <v>0.94097222222222221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+        <v>0.96180555555555547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="20">
-        <v>0.94236111111111109</v>
+      <c r="B17" s="21">
+        <v>0.96319444444444446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.96736111111111101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.97083333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.97291666666666676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.97430555555555554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.97638888888888886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.9784722222222223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.97986111111111107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.98125000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.98263888888888884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.98472222222222217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.98611111111111116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0.98819444444444438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" s="19">
+        <v>0.98958333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="21">
+        <v>0.99097222222222225</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="E60:E90">
+    <sortCondition ref="E90"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.93888888888888899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="25">
-        <v>0.9243055555555556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="B4" s="19">
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.92569444444444438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="B5" s="21">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.92847222222222225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="B6" s="19">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.93055555555555547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.93194444444444446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.93402777777777779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="B7" s="21">
+        <v>0.9472222222222223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.93611111111111101</v>
+      <c r="B8" s="19">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.95347222222222217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.95624999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.9590277777777777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.96111111111111114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.96597222222222223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A19" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.96736111111111101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.96944444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -2876,107 +3606,257 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="37">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B4" s="33">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="20">
-        <v>0.91875000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="B5" s="16">
+        <v>0.9506944444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="19">
-        <v>0.92291666666666661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="B6" s="33">
+        <v>0.95416666666666661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="20">
-        <v>0.92986111111111114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="B7" s="16">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="19">
-        <v>0.93333333333333324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="B8" s="33">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="B7" s="20">
-        <v>0.93888888888888899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="B9" s="16">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="19">
-        <v>0.94374999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="B10" s="33">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="20">
-        <v>0.94791666666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.9506944444444444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="20">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="B11" s="16">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="19">
-        <v>0.9590277777777777</v>
+      <c r="B12" s="33">
+        <v>0.98055555555555562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.98333333333333339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B25:F37">
+    <sortCondition ref="F25"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.94305555555555554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.9472222222222223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.94930555555555562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.95208333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="33">
+        <v>0.95416666666666661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.95694444444444438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="33">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.96319444444444446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0.96527777777777779</v>
       </c>
     </row>
   </sheetData>
@@ -2986,559 +3866,567 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+        <v>0.9291666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.91875000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="3">
+        <v>0.93125000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+        <v>0.93611111111111101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.92708333333333337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="3">
+        <v>0.93819444444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="2">
-        <v>0.9291666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.93263888888888891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="3">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="2">
-        <v>0.93472222222222223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+        <v>0.9458333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.93680555555555556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="3">
+        <v>0.94791666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="25">
-        <v>0.93958333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="19">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="25">
-        <v>0.94166666666666676</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="21">
+        <v>0.95347222222222217</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="23">
-        <v>0.94305555555555554</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="F12" s="42"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="19">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="25">
-        <v>0.9458333333333333</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="21">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="23">
-        <v>0.9472222222222223</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="F14" s="42"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="19">
+        <v>0.9590277777777777</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="25">
-        <v>0.94861111111111107</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="F15" s="42"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="21">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="23">
-        <v>0.9506944444444444</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="F16" s="42"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="19">
+        <v>0.96319444444444446</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="25">
-        <v>0.95208333333333339</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="F17" s="42"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="21">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="23">
-        <v>0.95416666666666672</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="F18" s="42"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B18" s="19">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="25">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="F19" s="42"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="23">
-        <v>0.95763888888888893</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="F20" s="42"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B19" s="21">
+        <v>0.96875</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.97083333333333333</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="25">
-        <v>0.9590277777777777</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="F21" s="42"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="21">
+        <v>0.97291666666666676</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="23">
-        <v>0.96111111111111114</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="F22" s="42"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="19">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="25">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="F23" s="42"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B23" s="21">
+        <v>0.97638888888888886</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="23">
-        <v>0.96458333333333346</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="F24" s="42"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="19">
+        <v>0.9784722222222223</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="25">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="F25" s="42"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="21">
+        <v>0.98055555555555562</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="23">
-        <v>0.96805555555555556</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="F26" s="42"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B26" s="19">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="25">
-        <v>0.97013888888888899</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="F27" s="42"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="B27" s="21">
+        <v>0.98472222222222217</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="23">
-        <v>0.97152777777777777</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="F28" s="42"/>
-    </row>
-    <row r="29" spans="1:6" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="B28" s="19">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="25">
-        <v>0.97638888888888886</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="B29" s="21">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="23">
-        <v>0.97777777777777786</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="F30" s="42"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="B30" s="19">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="25">
-        <v>0.97986111111111107</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="F31" s="42"/>
+      <c r="B31" s="21">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="F31" s="38"/>
     </row>
   </sheetData>
+  <sortState ref="E38:E59">
+    <sortCondition ref="E59"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.93888888888888899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.94236111111111109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.9472222222222223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.94861111111111107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.95347222222222217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="23">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="25">
-        <v>0.93888888888888899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0.94097222222222221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="25">
-        <v>0.94236111111111109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="23">
-        <v>0.94374999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0.94513888888888886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="23">
-        <v>0.9472222222222223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0.94861111111111107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="23">
-        <v>0.95000000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0.95138888888888884</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="23">
-        <v>0.95347222222222217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="25">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" s="23">
+      <c r="B14" s="19">
         <v>0.95694444444444438</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="21">
         <v>0.9590277777777777</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="19">
         <v>0.9604166666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="21">
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="19">
         <v>0.96388888888888891</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="21">
         <v>0.96527777777777779</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="19">
         <v>0.96736111111111101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="21">
         <v>0.96875</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="19">
         <v>0.97083333333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="21">
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="19">
         <v>0.97430555555555554</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="21">
         <v>0.97569444444444453</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="19">
         <v>0.9770833333333333</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="21">
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="19">
         <v>0.98055555555555562</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="21">
         <v>0.9819444444444444</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="23">
-        <v>0.98333333333333339</v>
+      <c r="B30" s="19">
+        <v>0.98402777777777783</v>
       </c>
     </row>
   </sheetData>
@@ -3549,226 +4437,228 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="2">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
         <v>0.93888888888888899</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="2">
         <v>0.94027777777777777</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.94166666666666676</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="2">
         <v>0.94236111111111109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.94374999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="2">
         <v>0.9458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.9472222222222223</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="2">
         <v>0.94930555555555562</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.9506944444444444</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B12" s="2">
         <v>0.95208333333333339</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.95347222222222217</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="2">
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0.95694444444444438</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B16" s="2">
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.95972222222222225</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="2">
         <v>0.96111111111111114</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.96319444444444446</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>16</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B20" s="2">
         <v>0.96527777777777779</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.96736111111111101</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="2">
         <v>0.96875</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.97083333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="2">
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="2">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>0.9770833333333333</v>
       </c>
     </row>
@@ -3780,106 +4670,108 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.93888888888888899</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="2">
         <v>0.94027777777777777</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.94305555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="2">
         <v>0.94513888888888886</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.9472222222222223</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B8" s="2">
         <v>0.94861111111111107</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.9506944444444444</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="2">
         <v>0.95208333333333339</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.95416666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="19">
         <v>0.9555555555555556</v>
       </c>
     </row>
@@ -3890,242 +4782,244 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="19">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="21">
         <v>0.93888888888888899</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="19">
         <v>0.94097222222222221</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="21">
         <v>0.94305555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="19">
         <v>0.94513888888888886</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="21">
         <v>0.94652777777777775</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="19">
         <v>0.94791666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="21">
         <v>0.94930555555555562</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="19">
         <v>0.9506944444444444</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="21">
         <v>0.95277777777777783</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="19">
         <v>0.95416666666666661</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="21">
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="19">
         <v>0.95763888888888893</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="21">
         <v>0.9590277777777777</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="19">
         <v>0.9604166666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="21">
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="19">
         <v>0.96388888888888891</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="21">
         <v>0.96597222222222223</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="19">
         <v>0.96736111111111101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="21">
         <v>0.96944444444444444</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="19">
         <v>0.97083333333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="21">
         <v>0.97291666666666676</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="19">
         <v>0.97430555555555554</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="21">
         <v>0.97638888888888886</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="19">
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="21">
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="19">
         <v>0.98055555555555562</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="21">
         <v>0.9819444444444444</v>
       </c>
     </row>
@@ -4136,279 +5030,281 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="19">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.93958333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="2">
         <v>0.94097222222222221</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.94305555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B6" s="2">
         <v>0.94444444444444453</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.94652777777777775</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="2">
         <v>0.94791666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.94930555555555562</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B10" s="2">
         <v>0.9506944444444444</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.95208333333333339</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="2">
         <v>0.95416666666666661</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="2">
         <v>0.95694444444444438</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
         <v>0.9590277777777777</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="2">
         <v>0.9604166666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B18" s="2">
         <v>0.96388888888888891</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.96527777777777779</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B20" s="2">
         <v>0.96736111111111101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.96875</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
         <v>147</v>
       </c>
       <c r="B22" s="2">
         <v>0.97013888888888899</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.97152777777777777</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
         <v>149</v>
       </c>
       <c r="B24" s="2">
         <v>0.97291666666666676</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B26" s="2">
         <v>0.97638888888888886</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B28" s="2">
         <v>0.97986111111111107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>0.9819444444444444</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="2">
         <v>0.98402777777777783</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>0.98611111111111116</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B32" s="2">
         <v>0.98749999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>0.9902777777777777</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="27" t="s">
         <v>159</v>
       </c>
       <c r="B34" s="2">
@@ -4422,259 +5318,261 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="19">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="21">
         <v>0.93888888888888899</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="19">
         <v>0.94027777777777777</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="21">
         <v>0.94166666666666676</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="19">
         <v>0.94444444444444453</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="21">
         <v>0.94652777777777775</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="19">
         <v>0.94930555555555562</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="21">
         <v>0.9506944444444444</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="19">
         <v>0.95208333333333339</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="21">
         <v>0.95347222222222217</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="19">
         <v>0.95486111111111116</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="21">
         <v>0.95694444444444438</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="19">
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="21">
         <v>0.95972222222222225</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="19">
         <v>0.96111111111111114</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="21">
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="19">
         <v>0.96388888888888891</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="21">
         <v>0.96527777777777779</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="19">
         <v>0.96736111111111101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="21">
         <v>0.96875</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="19">
         <v>0.97083333333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="21">
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="19">
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="21">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="19">
         <v>0.97638888888888886</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="21">
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="19">
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="21">
         <v>0.98055555555555562</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="19">
         <v>0.9819444444444444</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="23">
-        <v>0.98263888888888884</v>
+      <c r="B31" s="21">
+        <v>0.98333333333333339</v>
       </c>
     </row>
   </sheetData>
@@ -4684,231 +5582,312 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.93888888888888899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.94305555555555554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.94652777777777775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.94861111111111107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.9506944444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.95347222222222217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="15">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B11" s="21">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.94027777777777777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="B12" s="19">
+        <v>0.95763888888888893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.94166666666666676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B13" s="21">
+        <v>0.9590277777777777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.94444444444444453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.94652777777777775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B14" s="19">
+        <v>0.96180555555555547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.96388888888888891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.94791666666666663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="B16" s="19">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.94930555555555562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="B17" s="21">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.9506944444444444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="B18" s="19">
+        <v>0.96805555555555556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.95208333333333339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.95416666666666661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B19" s="21">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.95624999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B21" s="21">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="B22" s="19">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.9604166666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="B23" s="21">
+        <v>0.97777777777777775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.96180555555555547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="B24" s="19">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="4">
-        <v>0.96388888888888891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B25" s="21">
+        <v>0.98125000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.96597222222222223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="B26" s="19">
+        <v>0.98333333333333339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="4">
-        <v>0.96805555555555556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="B27" s="21">
+        <v>0.98541666666666661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.97083333333333333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="B28" s="19">
+        <v>0.98819444444444438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B20" s="4">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="B29" s="21">
+        <v>0.99236111111111114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.9784722222222223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="B30" s="19">
+        <v>0.99583333333333324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.98055555555555562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="B31" s="21">
+        <v>0.99791666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.98333333333333339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="B32" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="4">
-        <v>0.98611111111111116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="B33" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="4">
-        <v>0.98819444444444438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="B34" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="4">
-        <v>0.9902777777777777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="B35" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B27" s="25">
-        <v>0.99305555555555547</v>
+      <c r="B36" s="19" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C46:K80">
+    <sortCondition ref="G46"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>